--- a/Ahmed_data/Raw_data/Raw_data2.xlsx
+++ b/Ahmed_data/Raw_data/Raw_data2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.hassan\Desktop\Dataset of allelopathic effects of Casuarina equisetifolia-L leaf aquatic extract on seed germination and growth of selected plant crops-Raw data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqgrodr2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF70C12-35B5-4556-894E-A98CBB7A1DC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data2" sheetId="1" r:id="rId1"/>
@@ -64,10 +63,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -100,9 +99,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,23 +195,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -248,23 +230,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,27 +405,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -518,7 +483,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -547,7 +512,7 @@
         <v>802.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -576,7 +541,7 @@
         <v>540.20000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -605,7 +570,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -634,7 +599,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -663,7 +628,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -692,7 +657,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -721,7 +686,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -750,7 +715,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -779,7 +744,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -808,7 +773,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -837,7 +802,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -866,7 +831,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -895,7 +860,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -924,7 +889,7 @@
         <v>852.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
